--- a/Networks/RiskTable.xlsx
+++ b/Networks/RiskTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\Year1Semester2\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC66E370-BC86-47D1-A799-849619D8B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD54AE01-BC1D-4E79-AF92-CBB220F38B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,8 +218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -259,11 +272,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,29 +440,121 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,519 +898,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="36" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.375" style="36" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="21">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="21">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="25">
+        <f>D2*C2</f>
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="21">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="21">
         <v>8</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="21">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="21">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="25">
+        <f>D5*C5</f>
         <v>36</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="21">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="21">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="21">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="25">
+        <f>D8*C8</f>
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="21">
         <v>2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="21">
         <v>7</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="21">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="21">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="21">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>36</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="21">
         <v>2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="21">
         <v>9</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="21">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="21">
         <v>7</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>21</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="21">
         <v>2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="21">
         <v>7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="21">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="21">
         <v>6</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>24</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="21">
         <v>6</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="21">
         <v>4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="21">
         <v>7</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>28</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="21">
         <v>3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="21">
         <v>6</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="21">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
@@ -1166,40 +1464,6 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="E16:E19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
